--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -140,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,9 +183,6 @@
       <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="0">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -212,6 +209,7 @@
       <c r="H2" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="J2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -241,6 +239,7 @@
       <c r="I3" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -270,7 +269,8 @@
       <c r="I4" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="J4" s="0"/>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -299,6 +299,7 @@
       <c r="H5" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="J5" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -11,8 +11,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Leyenda</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="1">
+      <text>
+        <t>test 1</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <t>test 2</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <t>test 3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -96,6 +122,27 @@
   </si>
   <si>
     <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>testaudit</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>test@a.com</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>testing auditoria</t>
+  </si>
+  <si>
+    <t>1@a.a</t>
   </si>
 </sst>
 </file>
@@ -138,9 +185,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,7 +352,63 @@
       </c>
       <c r="J5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -21,6 +21,11 @@
     <comment ref="I1" authorId="1">
       <text>
         <t>test 1</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <t>test crit</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -20,20 +20,25 @@
   <commentList>
     <comment ref="I1" authorId="1">
       <text>
-        <t>test 1</t>
+        <t>testing secciones (seccion 0, debería ir primero)</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>test crit</t>
+        <t>test 1</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
+        <t>test crit</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
         <t>test 2</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>test 3</t>
       </text>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -67,6 +72,9 @@
   </si>
   <si>
     <t>Ocupacion_sujeto</t>
+  </si>
+  <si>
+    <t>preg_secc0</t>
   </si>
   <si>
     <t>preg_test_1</t>
@@ -196,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -239,177 +247,180 @@
       <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J2" s="0"/>
+        <v>20</v>
+      </c>
+      <c r="K2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="I3" t="n" s="0">
+      <c r="J3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="I4" t="n" s="0">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="J4" s="0"/>
-      <c r="K4" t="s">
-        <v>26</v>
+      <c r="K4" s="0"/>
+      <c r="L4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="J5" s="0"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J6" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J7" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="K7" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -40,6 +40,11 @@
     </comment>
     <comment ref="M1" authorId="1">
       <text>
+        <t>criterio con pregunta inexistente (en excel dicotomizado)</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
         <t>test 3</t>
       </text>
     </comment>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -84,6 +89,9 @@
   </si>
   <si>
     <t>pregutna_test_2</t>
+  </si>
+  <si>
+    <t>crit_preg_inex</t>
   </si>
   <si>
     <t>pregunta_test_3</t>
@@ -204,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -250,177 +258,186 @@
       <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0"/>
+      <c r="M2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="J3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="K3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K4" s="0"/>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="0"/>
+      <c r="M5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -25,25 +25,35 @@
     </comment>
     <comment ref="J1" authorId="1">
       <text>
+        <t>No aparece en excel dicotom; el criterio debería ser 1 si la respuesta es menor a 40</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <t>Criterio de preg_edad, donde es 1 si la respuesta es &lt;= 40</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
         <t>test 1</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>test crit</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>test 2</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>criterio con pregunta inexistente (en excel dicotomizado)</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>test 3</t>
       </text>
@@ -53,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -82,6 +92,12 @@
     <t>preg_secc0</t>
   </si>
   <si>
+    <t>preg_edad</t>
+  </si>
+  <si>
+    <t>crit_edad</t>
+  </si>
+  <si>
     <t>preg_test_1</t>
   </si>
   <si>
@@ -131,6 +147,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>0003</t>
@@ -212,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -261,183 +280,205 @@
       <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K2" s="0"/>
-      <c r="M2" s="0"/>
+        <v>23</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="M2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="J3" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.0</v>
       </c>
-      <c r="K3" s="0"/>
-      <c r="M3" s="0"/>
+      <c r="M3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n" s="0">
+        <v>23</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" s="0"/>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
       <c r="M4"/>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5" s="0"/>
-      <c r="M5" s="0"/>
+      <c r="M5"/>
+      <c r="O5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="0"/>
-      <c r="M6" s="0"/>
+      <c r="M6"/>
+      <c r="O6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="M7" s="0"/>
+      <c r="M7"/>
+      <c r="O7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -35,25 +35,30 @@
     </comment>
     <comment ref="L1" authorId="1">
       <text>
+        <t>Criterio que es 1 si preg_edad es &gt; promedio (avg)</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
         <t>test 1</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>test crit</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>test 2</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>criterio con pregunta inexistente (en excel dicotomizado)</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>test 3</t>
       </text>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -98,6 +103,9 @@
     <t>crit_edad</t>
   </si>
   <si>
+    <t>crit_edad_avg</t>
+  </si>
+  <si>
     <t>preg_test_1</t>
   </si>
   <si>
@@ -137,6 +145,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -147,9 +158,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>0003</t>
@@ -231,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -286,199 +294,212 @@
       <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="M2"/>
-      <c r="O2"/>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2"/>
+      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="J3" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.0</v>
       </c>
-      <c r="M3"/>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="P3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="L4" t="n">
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>1.0</v>
       </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0"/>
-      <c r="M5"/>
-      <c r="O5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="P5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0"/>
-      <c r="M6"/>
-      <c r="O6"/>
+      <c r="L6"/>
+      <c r="N6"/>
+      <c r="P6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="M7"/>
-      <c r="O7"/>
+      <c r="L7"/>
+      <c r="N7"/>
+      <c r="P7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>1@a.a</t>
+  </si>
+  <si>
+    <t>Cantidad de 0s =</t>
+  </si>
+  <si>
+    <t>Cantidad de 1s =</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -501,6 +507,70 @@
       <c r="N7"/>
       <c r="P7"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I9" s="0">
+        <f>COUNTIF(I1:I7,1)</f>
+      </c>
+      <c r="J9" s="0">
+        <f>COUNTIF(J1:J7,1)</f>
+      </c>
+      <c r="K9" s="0">
+        <f>COUNTIF(K1:K7,1)</f>
+      </c>
+      <c r="L9" s="0">
+        <f>COUNTIF(L1:L7,1)</f>
+      </c>
+      <c r="M9" s="0">
+        <f>COUNTIF(M1:M7,1)</f>
+      </c>
+      <c r="N9" s="0">
+        <f>COUNTIF(N1:N7,1)</f>
+      </c>
+      <c r="O9" s="0">
+        <f>COUNTIF(O1:O7,1)</f>
+      </c>
+      <c r="P9" s="0">
+        <f>COUNTIF(P1:P7,1)</f>
+      </c>
+      <c r="Q9" s="0">
+        <f>COUNTIF(Q1:Q7,1)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I10" s="0">
+        <f>COUNTIF(I1:I7,0)</f>
+      </c>
+      <c r="J10" s="0">
+        <f>COUNTIF(J1:J7,0)</f>
+      </c>
+      <c r="K10" s="0">
+        <f>COUNTIF(K1:K7,0)</f>
+      </c>
+      <c r="L10" s="0">
+        <f>COUNTIF(L1:L7,0)</f>
+      </c>
+      <c r="M10" s="0">
+        <f>COUNTIF(M1:M7,0)</f>
+      </c>
+      <c r="N10" s="0">
+        <f>COUNTIF(N1:N7,0)</f>
+      </c>
+      <c r="O10" s="0">
+        <f>COUNTIF(O1:O7,0)</f>
+      </c>
+      <c r="P10" s="0">
+        <f>COUNTIF(P1:P7,0)</f>
+      </c>
+      <c r="Q10" s="0">
+        <f>COUNTIF(Q1:Q7,0)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/bdd/test2.xlsx
+++ b/bdd/test2.xlsx
@@ -40,25 +40,30 @@
     </comment>
     <comment ref="M1" authorId="1">
       <text>
+        <t>test criterio AND</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
         <t>test 1</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>test crit</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>test 2</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>criterio con pregunta inexistente (en excel dicotomizado)</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>test 3</t>
       </text>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>ID_sujeto</t>
   </si>
@@ -104,6 +109,9 @@
   </si>
   <si>
     <t>crit_edad_avg</t>
+  </si>
+  <si>
+    <t>crit_and_test</t>
   </si>
   <si>
     <t>preg_test_1</t>
@@ -245,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -303,213 +311,245 @@
       <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2"/>
-      <c r="P2"/>
+        <v>26</v>
+      </c>
+      <c r="M2"/>
+      <c r="O2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.0</v>
       </c>
-      <c r="N3"/>
-      <c r="P3"/>
+      <c r="O3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="K4" s="0"/>
-      <c r="L4"/>
-      <c r="M4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.0</v>
       </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4"/>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K5" s="0"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="P5"/>
+        <v>29</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0"/>
       <c r="L6"/>
-      <c r="N6"/>
-      <c r="P6"/>
+      <c r="M6"/>
+      <c r="O6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7"/>
-      <c r="N7"/>
-      <c r="P7"/>
+      <c r="M7"/>
+      <c r="O7"/>
+      <c r="Q7"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="0">
         <f>COUNTIF(I1:I7,1)</f>
@@ -538,10 +578,13 @@
       <c r="Q9" s="0">
         <f>COUNTIF(Q1:Q7,1)</f>
       </c>
+      <c r="R9" s="0">
+        <f>COUNTIF(R1:R7,1)</f>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="0">
         <f>COUNTIF(I1:I7,0)</f>
@@ -569,6 +612,9 @@
       </c>
       <c r="Q10" s="0">
         <f>COUNTIF(Q1:Q7,0)</f>
+      </c>
+      <c r="R10" s="0">
+        <f>COUNTIF(R1:R7,0)</f>
       </c>
     </row>
   </sheetData>
